--- a/StockReport_5.xlsx
+++ b/StockReport_5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Rapport sur le stock kk</t>
   </si>
@@ -44,16 +44,19 @@
     <t>Quantité:</t>
   </si>
   <si>
-    <t>4</t>
+    <t>25</t>
   </si>
   <si>
     <t>Nombre vendus:</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Cout total:</t>
   </si>
   <si>
-    <t>50.0</t>
+    <t>312.5</t>
   </si>
 </sst>
 </file>
@@ -154,15 +157,15 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
